--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2799608.06997242</v>
+        <v>2945497.491485073</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5114770.234834176</v>
+        <v>5394554.827446508</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.2623228523915</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -671,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>95.62581518521034</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.01056728151127</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>111.6757840387645</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.8213997979976</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>284.505298110277</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>84.21336031223854</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.402899104849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1151,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>51.28180484925402</v>
       </c>
       <c r="W8" t="n">
-        <v>152.0493806265893</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,13 +1299,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>212.9502013365101</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.210854173737152</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1373,13 +1375,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1424,13 +1426,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>41.63775979791698</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>144.4854007530234</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399261</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1588,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>278.9434796996491</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>96.44420510686388</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>128.0467705358495</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>78.60513115873135</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2242,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>85.97308812299974</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,7 +2484,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>69.83767438079015</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>66.38848519184279</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>127.8636321267639</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>98.26334559068066</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>160.9061021023308</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>70.10320663916228</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>90.90136429434205</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,10 +3486,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3566,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>75.25534642052892</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3740,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.7210036219759</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>54.54403228521156</v>
       </c>
       <c r="W43" t="n">
-        <v>231.7385355636239</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>407.4405590006957</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4150,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>89.66828639967852</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>108.5937695101885</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455.1087569162936</v>
+        <v>1230.082836572064</v>
       </c>
       <c r="C2" t="n">
-        <v>432.2484309699978</v>
+        <v>803.1821065853638</v>
       </c>
       <c r="D2" t="n">
-        <v>412.9962141954022</v>
+        <v>783.9298898107681</v>
       </c>
       <c r="E2" t="n">
-        <v>391.0596783836638</v>
+        <v>761.9933539990298</v>
       </c>
       <c r="F2" t="n">
-        <v>369.9759006134681</v>
+        <v>740.909576228834</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="M2" t="n">
-        <v>950.4838058662885</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="N2" t="n">
-        <v>950.4838058662885</v>
+        <v>977.2289161310154</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.957808655251</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1351.458990130058</v>
       </c>
       <c r="V2" t="n">
-        <v>1125.388004637139</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="W2" t="n">
-        <v>728.9966549374858</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="X2" t="n">
-        <v>721.3170601456371</v>
+        <v>1247.187662827895</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.0201941409315</v>
+        <v>1245.89079682319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668171</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843219</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996069</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725441</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554482</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730523</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353619</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>126.4191340353619</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>398.1166233149529</v>
       </c>
       <c r="K3" t="n">
-        <v>501.1445421254694</v>
+        <v>398.1166233149529</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>877.0555475573811</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>1355.994471799809</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1445421254694</v>
+        <v>1355.994471799809</v>
       </c>
       <c r="O3" t="n">
-        <v>957.9304488282003</v>
+        <v>1834.933396042238</v>
       </c>
       <c r="P3" t="n">
-        <v>1414.716355530931</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366925</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335875</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868798</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>580.8482683924169</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>580.8482683924169</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>417.5314955191876</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.971717135007</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1521.632369360907</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1521.632369360907</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>1239.920901968935</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.234210646058</v>
+        <v>1239.920901968935</v>
       </c>
       <c r="X4" t="n">
-        <v>1110.234210646058</v>
+        <v>997.3570054147405</v>
       </c>
       <c r="Y4" t="n">
-        <v>1110.234210646058</v>
+        <v>771.0142371044825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.5671432933932</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>939.7068173470974</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>920.4546005725017</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>494.4776607203593</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>473.3938829501636</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>69.05482053961219</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>69.05482053961219</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M5" t="n">
-        <v>950.4838058662885</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>950.4838058662885</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1383.742914040727</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>987.3515643410735</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>979.6719695492249</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.3751035445192</v>
+        <v>584.6749752702793</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254695</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254695</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>501.1445421254695</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511716</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.6805607205508</v>
+        <v>946.7665737820064</v>
       </c>
       <c r="C7" t="n">
-        <v>136.6805607205508</v>
+        <v>774.7940106609224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.6805607205508</v>
+        <v>611.4772377876931</v>
       </c>
       <c r="E7" t="n">
-        <v>136.6805607205508</v>
+        <v>611.4772377876931</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>439.6154635622535</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>273.3584938564856</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>129.56222536464</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3382947543912</v>
+        <v>1379.496439048267</v>
       </c>
       <c r="X7" t="n">
-        <v>305.7743982001963</v>
+        <v>1136.932542494072</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.6805607205508</v>
+        <v>1136.932542494072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1667.229969037506</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>1240.329239050806</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>1221.07702227621</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>795.1000824240679</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>369.9759006134681</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>1407.269712569019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2068.744155457483</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.014390085186</v>
+        <v>2068.744155457483</v>
       </c>
       <c r="X8" t="n">
-        <v>1684.334795293337</v>
+        <v>1657.02415662523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.037929288632</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K9" t="n">
-        <v>475.2419029331441</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331441</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N9" t="n">
-        <v>475.2419029331441</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O9" t="n">
-        <v>932.027809635875</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>953.8361452792958</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="C10" t="n">
-        <v>781.8635821582118</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D10" t="n">
-        <v>618.5468092849825</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E10" t="n">
-        <v>452.338603437836</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1395.280127060776</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1180.178913589554</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.178913589554</v>
+        <v>1206.118104523222</v>
       </c>
       <c r="Y10" t="n">
-        <v>953.8361452792958</v>
+        <v>979.775336212964</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1662.466231794887</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1235.565501808187</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1235.565501808187</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>809.5885619560448</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>88.09006554780672</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>985.0826563649257</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>1882.075247182045</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>2779.067837999164</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O11" t="n">
-        <v>3624.212488149976</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149976</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3298.919623067749</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2941.430208193999</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2899.371864963779</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2487.651866131527</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2082.314596086417</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>94.69801151491879</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>991.6906023320378</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>991.6906023320378</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.6019286254902</v>
+        <v>843.7980793371744</v>
       </c>
       <c r="C13" t="n">
-        <v>171.6293655044062</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D13" t="n">
-        <v>171.6293655044062</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E13" t="n">
-        <v>171.6293655044062</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299951</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.7678973375558</v>
+        <v>1033.96404804924</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560448</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>88.09006554780672</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>88.09006554780672</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>985.0826563649257</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M14" t="n">
-        <v>1882.075247182045</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N14" t="n">
-        <v>2779.067837999164</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149976</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149976</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3624.212488149976</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3624.212488149976</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3212.492489317723</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299951</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299951</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2830578459057</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>1806.275648663025</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.7369761063553</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C16" t="n">
-        <v>341.7644129852713</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D16" t="n">
-        <v>341.7644129852713</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E16" t="n">
-        <v>341.7644129852713</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F16" t="n">
-        <v>169.9026387598317</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.557929402028</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.373480902332</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.662013510361</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.809609682874</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X16" t="n">
-        <v>930.2457131286789</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.9029448184209</v>
+        <v>893.7347922190779</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>3585.592171952422</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>3585.592171952422</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>3585.592171952422</v>
       </c>
       <c r="M18" t="n">
-        <v>275.5106105659859</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>3369.780547132333</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>3197.807984011249</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>3034.49121113802</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>3034.49121113802</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.49121113802</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.49121113802</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.49121113802</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102454</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>4865.601500428005</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>4585.41705192831</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>4303.705584536338</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>4028.853180708852</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>3786.289284154657</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>3559.946515844399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153418</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690841</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690841</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109899</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>796.0638950398506</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>624.0913319187666</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>460.7745590455373</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>986.2298637519162</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2212.172635383815</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1968.833287609715</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.64883911002</v>
+        <v>1802.182269612635</v>
       </c>
       <c r="V25" t="n">
-        <v>1406.937371718049</v>
+        <v>1520.470802220664</v>
       </c>
       <c r="W25" t="n">
-        <v>1132.084967890562</v>
+        <v>1245.618398393177</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.084967890562</v>
+        <v>1245.618398393177</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>1019.275630082919</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1051.55367876354</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>879.5811156424563</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1710.626312340059</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1710.626312340059</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1468.062415785864</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1241.719647475606</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>373.4203922683193</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>373.4203922683193</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>373.4203922683193</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>201.5586180428797</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1876.844976779876</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6706,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3278.556980224822</v>
+        <v>3650.827773049142</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.584417103738</v>
+        <v>3478.855209928058</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103738</v>
+        <v>3315.538437054829</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>3149.330231207682</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>3149.330231207682</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>3149.330231207682</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>3005.533962715836</v>
       </c>
       <c r="I34" t="n">
         <v>2934.722642878299</v>
@@ -6883,25 +6885,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>5017.717281294595</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T34" t="n">
-        <v>4774.377933520494</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U34" t="n">
-        <v>4494.193485020799</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V34" t="n">
-        <v>4212.482017628828</v>
+        <v>4309.90040662566</v>
       </c>
       <c r="W34" t="n">
-        <v>3937.629613801341</v>
+        <v>4309.90040662566</v>
       </c>
       <c r="X34" t="n">
-        <v>3695.065717247146</v>
+        <v>4067.336510071465</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.722948936888</v>
+        <v>3840.993741761207</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7020,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>557.3635891120873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>557.3635891120873</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>1277.30339582334</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7184,40 +7186,40 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5299206506891</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5299206506891</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1328.848223970851</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>901.9474939841507</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>901.9474939841507</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>72.4842497629995</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.4842497629995</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>269.5743483894262</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>985.0826563649252</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1882.075247182044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1882.075247182044</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2779.067837999163</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3624.212488149975</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149975</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149975</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3519.845194023115</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3261.490284619527</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2904.000869745777</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2507.609520046124</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2095.889521213871</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1748.696588262381</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491133</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>618.8093763575287</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8093763575287</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>618.8093763575287</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>618.8093763575287</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>618.8093763575287</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5100510816969</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C43" t="n">
-        <v>382.537487960613</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>382.537487960613</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>382.537487960613</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>382.537487960613</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.4842497629995</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2009.557929402028</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.373480902332</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.662013510361</v>
+        <v>1947.436310212987</v>
       </c>
       <c r="W43" t="n">
-        <v>1213.582684658215</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="X43" t="n">
-        <v>971.0187881040206</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6760197937626</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2166.381284025716</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>1739.480554039016</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>72.4842497629995</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>72.4842497629995</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L44" t="n">
-        <v>435.087708579895</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M44" t="n">
-        <v>1308.433432795958</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N44" t="n">
-        <v>2205.426023613077</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3050.570673763889</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763889</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268072</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149975</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3403.286917194608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3403.286917194608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3403.286917194608</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3403.286917194608</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2991.566918362355</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2586.229648317246</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.4842497629995</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>344.1817390425906</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>984.1792895263904</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1002.674562202009</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C46" t="n">
-        <v>830.7019990809247</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D46" t="n">
-        <v>667.3852262076954</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E46" t="n">
-        <v>501.1770203605489</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F46" t="n">
-        <v>329.3152461351093</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0582764293414</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.526966029496</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.674562202009</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.674562202009</v>
+        <v>1241.775644163479</v>
       </c>
       <c r="Y46" t="n">
-        <v>1002.674562202009</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>135.24366099543</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1121742943703</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681975</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>122.9560619862771</v>
       </c>
       <c r="Q3" t="n">
-        <v>375.1348740725163</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8152,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740752</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2965767485775</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>375.5597255057597</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8377,10 +8379,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O8" t="n">
-        <v>361.4046720736148</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>190.7148107956832</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>173.2669883963343</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>84.64530730648448</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>51.52805108249338</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>44.9532298979864</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498219</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.18340977327057</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498219</v>
+        <v>1023.930471778425</v>
       </c>
       <c r="N15" t="n">
-        <v>96.99578748675862</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9024,10 +9026,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.1890847023777</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>198.0542523912748</v>
+        <v>467.7720854276165</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9261,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608524</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10352,7 +10354,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10586,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602115997</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10670,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>482.1725369225717</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10832,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838776</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>280.320346557523</v>
+        <v>137.2046649808205</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5008671890478</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701166</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091174</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>919.5986610974752</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719398</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>668.977258920088</v>
+        <v>692.4495711160979</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498217</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.7896764047396</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>25.76743673684976</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.98949189919257</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.3404176450095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>68.15019490184631</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>96.03257009130584</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23908,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>162.3008231376276</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>78.57303566567523</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>98.59602262526634</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>210.994118822856</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33.81997301773305</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.33105441802952</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.9882506157206</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>28.6676759379645</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.36294473060295</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>94.88781006265626</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.5628937226827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>224.3503204328398</v>
       </c>
       <c r="W43" t="n">
-        <v>40.36534422558816</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>11.61913560615403</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>52.69001940724863</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>115.4855711169669</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473604.3039307058</v>
+        <v>473833.7857759022</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473604.3039307058</v>
+        <v>474576.7976456517</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473604.3039307058</v>
+        <v>474576.7976456517</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368890.7508481723</v>
+        <v>463940.435907942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>368890.7508481723</v>
+        <v>463940.435907942</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463940.4359079418</v>
+        <v>463940.435907942</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463940.4359079418</v>
+        <v>463940.435907942</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463940.4359079418</v>
+        <v>463940.435907942</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>368890.7508481722</v>
+        <v>463940.435907942</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>368890.7508481722</v>
+        <v>463940.435907942</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>553320.5346106046</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106045</v>
+        <v>553320.534610605</v>
       </c>
       <c r="D2" t="n">
         <v>553320.5346106049</v>
       </c>
       <c r="E2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805743</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.0315558377</v>
+        <v>533928.8829805751</v>
       </c>
       <c r="G2" t="n">
         <v>533928.8829805747</v>
       </c>
       <c r="H2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="I2" t="n">
         <v>533928.8829805746</v>
@@ -26338,22 +26340,22 @@
         <v>533928.8829805749</v>
       </c>
       <c r="K2" t="n">
-        <v>533928.8829805751</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="L2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="M2" t="n">
         <v>533928.8829805747</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533928.8829805746</v>
       </c>
       <c r="N2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="O2" t="n">
-        <v>424545.0315558377</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="P2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805746</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091332</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168860.431333321</v>
+        <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="F4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792738</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26448,16 +26450,16 @@
         <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
+        <v>15116.1736579274</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="O4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12002.98750317896</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12002.98750317895</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168153.6683889348</v>
+        <v>164185.9002741573</v>
       </c>
       <c r="C6" t="n">
-        <v>322779.3890070552</v>
+        <v>314337.0373305505</v>
       </c>
       <c r="D6" t="n">
-        <v>322779.3890070555</v>
+        <v>337743.8710041625</v>
       </c>
       <c r="E6" t="n">
-        <v>224690.3462231774</v>
+        <v>225323.2905775766</v>
       </c>
       <c r="F6" t="n">
-        <v>357454.0142327792</v>
+        <v>441062.6471342181</v>
       </c>
       <c r="G6" t="n">
-        <v>338902.7270399077</v>
+        <v>441062.6471342176</v>
       </c>
       <c r="H6" t="n">
-        <v>441062.6471342179</v>
+        <v>441062.6471342177</v>
       </c>
       <c r="I6" t="n">
-        <v>441062.6471342174</v>
+        <v>441062.6471342175</v>
       </c>
       <c r="J6" t="n">
-        <v>320340.1301914608</v>
+        <v>314485.3785539289</v>
       </c>
       <c r="K6" t="n">
-        <v>441062.647134218</v>
+        <v>422416.0467771978</v>
       </c>
       <c r="L6" t="n">
-        <v>441062.6471342176</v>
+        <v>441062.6471342175</v>
       </c>
       <c r="M6" t="n">
-        <v>330253.2870250843</v>
+        <v>260998.77567905</v>
       </c>
       <c r="N6" t="n">
-        <v>441062.6471342178</v>
+        <v>441062.6471342177</v>
       </c>
       <c r="O6" t="n">
-        <v>357454.0142327791</v>
+        <v>441062.6471342177</v>
       </c>
       <c r="P6" t="n">
-        <v>357454.0142327792</v>
+        <v>441062.6471342175</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771598</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353626</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771593</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771598</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353626</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.3875577962232</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>258.2887055398027</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.25374174343372</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.87033974991049</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>2.726502745965902</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>116.7785992343815</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.55752226488825</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.67644152230633</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27910,13 +27912,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>302.632715875759</v>
       </c>
       <c r="W8" t="n">
-        <v>240.3780555760673</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>59.15367845270202</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>236.9274034149158</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>97.96403816098399</v>
       </c>
       <c r="O2" t="n">
-        <v>324.7212149383462</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>101.1852207814485</v>
       </c>
       <c r="Q3" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34872,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709421041</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>352.3878357835375</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35097,10 +35099,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>150.7519016821047</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>63.89640633088408</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>15.76345028768405</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>22.43814318375685</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374939</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.76345028768405</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374939</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="N15" t="n">
-        <v>75.65275927321696</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.0644100977797</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>174.9574718789468</v>
+        <v>444.6753049152885</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937777</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752659</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013684</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494316</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>257.8052598432935</v>
+        <v>114.689578266591</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>199.0809077034613</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374937</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374937</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>269.879792275784</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>882.1673981980434</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>646.4621722058585</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374937</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2945497.491485073</v>
+        <v>2944800.830279982</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5394554.827446508</v>
+        <v>5394554.827446506</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>143.433823780399</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>95.62581518521034</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>111.6757840387645</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>159.3208885507537</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>125.7848865347143</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>284.505298110277</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>84.21336031223854</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845512</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>294.9062684805532</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>51.28180484925402</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>3.210854173737152</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>144.4854007530234</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>236.6560830795647</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1776,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>117.6389794551519</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.0467705358495</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>78.60513115873135</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2098,10 +2098,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>85.97308812299974</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
-        <v>66.38848519184279</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>160.9061021023308</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>70.10320663916228</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3331,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.90136429434205</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,7 +3435,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>149.4187592764959</v>
       </c>
     </row>
     <row r="38">
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>75.25534642052892</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>10.02877608965449</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>54.54403228521156</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>193.7205091235266</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5937695101885</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.082836572064</v>
+        <v>601.4828916608683</v>
       </c>
       <c r="C2" t="n">
-        <v>803.1821065853638</v>
+        <v>578.6225657145725</v>
       </c>
       <c r="D2" t="n">
-        <v>783.9298898107681</v>
+        <v>559.3703489399768</v>
       </c>
       <c r="E2" t="n">
-        <v>761.9933539990298</v>
+        <v>537.4338131282384</v>
       </c>
       <c r="F2" t="n">
-        <v>740.909576228834</v>
+        <v>516.3500353580426</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>371.4673850748113</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231744</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516412</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516412</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516412</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="N2" t="n">
-        <v>977.2289161310154</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373444</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615872</v>
+        <v>1479.021285111686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130058</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="V2" t="n">
-        <v>1254.867257619744</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="W2" t="n">
-        <v>1254.867257619744</v>
+        <v>1434.348120789357</v>
       </c>
       <c r="X2" t="n">
-        <v>1247.187662827895</v>
+        <v>1022.628121957104</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.89079682319</v>
+        <v>1021.331255952398</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668171</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843219</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996069</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725441</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554482</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730523</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353619</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353619</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149529</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K3" t="n">
-        <v>398.1166233149529</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="L3" t="n">
-        <v>877.0555475573811</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="M3" t="n">
-        <v>1355.994471799809</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="N3" t="n">
-        <v>1355.994471799809</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="O3" t="n">
-        <v>1834.933396042238</v>
+        <v>996.5799837771727</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615872</v>
+        <v>1475.518908019601</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615872</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615872</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366925</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335875</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868798</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.8482683924169</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>580.8482683924169</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>417.5314955191876</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>304.7276732578093</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578093</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968734981</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679188</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381696</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014205</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.507552693969</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135007</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1521.632369360907</v>
+        <v>1774.176574160563</v>
       </c>
       <c r="U4" t="n">
-        <v>1521.632369360907</v>
+        <v>1493.992125660867</v>
       </c>
       <c r="V4" t="n">
-        <v>1239.920901968935</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="W4" t="n">
-        <v>1239.920901968935</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="X4" t="n">
-        <v>997.3570054147405</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="Y4" t="n">
-        <v>771.0142371044825</v>
+        <v>1212.280658268896</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8670150191533</v>
+        <v>234.1248547200804</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728575</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>872.0540642705591</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>584.6749752702793</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336857</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>946.7665737820064</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7940106609224</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>611.4772377876931</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>611.4772377876931</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>439.6154635622535</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>273.3584938564856</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>129.56222536464</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R7" t="n">
-        <v>2177.87263914955</v>
-      </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>1654.348842875754</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="W7" t="n">
-        <v>1379.496439048267</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1136.932542494072</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1136.932542494072</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M8" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="M8" t="n">
-        <v>2059.098288819458</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2068.744155457483</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.744155457483</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>1657.02415662523</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>427.8148593995469</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>572.914647509062</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M9" t="n">
-        <v>1123.5801824935</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>1674.245717477938</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.245717477938</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.6093675008983</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>617.6368043798143</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1206.118104523222</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.775336212964</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,49 +5029,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>4220.213029898572</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P11" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5117,25 +5117,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.7980793371744</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C13" t="n">
-        <v>697.8532300916962</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D13" t="n">
-        <v>534.5364572184669</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E13" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5226,25 +5226,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W13" t="n">
-        <v>1260.306816359498</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X13" t="n">
-        <v>1260.306816359498</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y13" t="n">
-        <v>1033.96404804924</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3012.464920930865</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3857.609571081677</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5357,16 +5357,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M15" t="n">
-        <v>1364.825557038856</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N15" t="n">
         <v>1364.825557038856</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>703.5688235070123</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>531.5962603859283</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>368.279487512699</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>202.0712816655526</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>202.0712816655526</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859194</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.638861031707</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.074964477512</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.7347922190779</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3585.592171952422</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3585.592171952422</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>3585.592171952422</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3369.780547132333</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>3197.807984011249</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>3034.49121113802</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>3034.49121113802</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>3034.49121113802</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G19" t="n">
-        <v>3034.49121113802</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.49121113802</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102454</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>4865.601500428005</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>4585.41705192831</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>4303.705584536338</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>4028.853180708852</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>3786.289284154657</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>3559.946515844399</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5764,16 +5764,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5834,16 +5834,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>796.0638950398506</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>624.0913319187666</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>460.7745590455373</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>986.2298637519162</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,13 +5998,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1019.275630082919</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>847.303066961835</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1802.182269612635</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1520.470802220664</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1245.618398393177</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1245.618398393177</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1019.275630082919</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.464920930865</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>3857.609571081677</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.888850239604</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.844976779876</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1601.992572952389</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3650.827773049142</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3478.855209928058</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3315.538437054829</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3149.330231207682</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3149.330231207682</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3149.330231207682</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3005.533962715836</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4309.90040662566</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4309.90040662566</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4067.336510071465</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3840.993741761207</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988738</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X37" t="n">
-        <v>1503.646164133598</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y37" t="n">
-        <v>1277.30339582334</v>
+        <v>913.8534934449018</v>
       </c>
     </row>
     <row r="38">
@@ -7174,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7253,25 +7253,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>223.2920388516654</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.5477476675582</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="C40" t="n">
-        <v>344.5751845464741</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D40" t="n">
-        <v>344.5751845464741</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E40" t="n">
-        <v>344.5751845464741</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
         <v>268.5596831115964</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2102.450616479855</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.266167980159</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.554700588188</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1265.702296760701</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1023.138400206506</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>796.7956318962481</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
         <v>2113.800768076616</v>
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7426,37 +7426,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1013.511272808982</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7599,22 +7599,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>2002.531292319261</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1947.436310212987</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>1672.5839063855</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>1430.020009831305</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1203.677241521047</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>456.2068044646703</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1171.715112440169</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>2101.340160059446</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>3105.626261478504</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7727,25 +7727,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
         <v>1828.971033901635</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>941.9189991784958</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C46" t="n">
-        <v>769.9464360574118</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D46" t="n">
-        <v>606.6296631841825</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E46" t="n">
-        <v>440.421457337036</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V46" t="n">
-        <v>1759.191944545161</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W46" t="n">
-        <v>1484.339540717674</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X46" t="n">
-        <v>1241.775644163479</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.084967890562</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,16 +7990,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>135.24366099543</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>521.1676505099915</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>158.6236875856031</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681975</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.119719367509</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761901</v>
+        <v>506.9485808761896</v>
       </c>
       <c r="P3" t="n">
-        <v>122.9560619862771</v>
+        <v>505.547532358796</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>398.3741674336519</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094601</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740752</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8306,7 +8306,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8315,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>204.7674648980005</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8531,25 +8531,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>173.2669883963343</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8692,7 +8692,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8704,16 +8704,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166146</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>281.3706244104145</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,16 +8938,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,19 +9005,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>197.3567057122802</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1023.930471778425</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635589</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9251,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>467.7720854276165</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10123,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>443.1202251383856</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>224.6533223166459</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,13 +10901,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>137.2046649808205</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>386.8988393430025</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130248</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>692.4495711160979</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>25.76743673684976</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>35.44779670964741</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>122.499278133501</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.03257009130584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184622</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>162.3008231376276</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>78.57303566567523</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
-        <v>210.994118822856</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.9882506157206</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>28.6676759379645</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.36294473060295</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>74.66058135065944</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>94.88781006265626</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>230.8771782067045</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>45.91410070006319</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>224.3503204328398</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>47.18544517283243</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.4855711169669</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>463940.435907942</v>
+        <v>463940.4359079418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106046</v>
+        <v>553320.5346106045</v>
       </c>
       <c r="C2" t="n">
+        <v>553320.5346106049</v>
+      </c>
+      <c r="D2" t="n">
         <v>553320.534610605</v>
       </c>
-      <c r="D2" t="n">
-        <v>553320.5346106049</v>
-      </c>
       <c r="E2" t="n">
-        <v>533928.8829805743</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="F2" t="n">
-        <v>533928.8829805751</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="G2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="I2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="J2" t="n">
         <v>533928.8829805747</v>
-      </c>
-      <c r="H2" t="n">
-        <v>533928.8829805749</v>
-      </c>
-      <c r="I2" t="n">
-        <v>533928.8829805746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>533928.8829805749</v>
       </c>
       <c r="K2" t="n">
         <v>533928.8829805747</v>
@@ -26349,13 +26349,13 @@
         <v>533928.8829805747</v>
       </c>
       <c r="N2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="O2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="P2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361224</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701981</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163968.7154446949</v>
+        <v>163968.715444695</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26426,34 +26426,34 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
+        <v>15116.1736579274</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
-      <c r="I4" t="n">
-        <v>15116.17365792743</v>
-      </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.1736579274</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
         <v>15116.17365792743</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>164185.9002741573</v>
       </c>
       <c r="C6" t="n">
-        <v>314337.0373305505</v>
+        <v>314337.0373305501</v>
       </c>
       <c r="D6" t="n">
-        <v>337743.8710041625</v>
+        <v>337743.8710041627</v>
       </c>
       <c r="E6" t="n">
-        <v>225323.2905775766</v>
+        <v>225272.2599153928</v>
       </c>
       <c r="F6" t="n">
-        <v>441062.6471342181</v>
+        <v>441011.6164720334</v>
       </c>
       <c r="G6" t="n">
-        <v>441062.6471342176</v>
+        <v>441011.6164720335</v>
       </c>
       <c r="H6" t="n">
-        <v>441062.6471342177</v>
+        <v>441011.6164720332</v>
       </c>
       <c r="I6" t="n">
-        <v>441062.6471342175</v>
+        <v>441011.6164720334</v>
       </c>
       <c r="J6" t="n">
-        <v>314485.3785539289</v>
+        <v>314434.3478917447</v>
       </c>
       <c r="K6" t="n">
-        <v>422416.0467771978</v>
+        <v>422365.0161150133</v>
       </c>
       <c r="L6" t="n">
-        <v>441062.6471342175</v>
+        <v>441011.6164720332</v>
       </c>
       <c r="M6" t="n">
-        <v>260998.77567905</v>
+        <v>260947.7450168658</v>
       </c>
       <c r="N6" t="n">
-        <v>441062.6471342177</v>
+        <v>441011.6164720333</v>
       </c>
       <c r="O6" t="n">
-        <v>441062.6471342177</v>
+        <v>441011.6164720334</v>
       </c>
       <c r="P6" t="n">
-        <v>441062.6471342175</v>
+        <v>441011.6164720334</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>256.8618480060468</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>258.2887055398027</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.87033974991049</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>81.58506574560533</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>296.8468361521186</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>116.7785992343815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.55752226488825</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.7088052046609</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>120.7436121680615</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>302.632715875759</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>236.9274034149158</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>97.96403816098399</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>121.0483257753719</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1852207814485</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>375.6271291446734</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567482</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709421041</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35035,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>150.7519016821047</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35424,16 +35424,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>258.2738438980865</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,16 +35658,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1000.833691266097</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641272</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>444.6753049152885</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937777</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36843,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.5286477120479</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37621,13 +37621,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>114.689578266591</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>357.478879857416</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
